--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61235c36ee3f7d6/Documents/H.R/PANDAS-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B92FE2B-D78F-461D-B39D-CF988F2BED00}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C23719C-EB62-4ECB-A757-61A6A10223EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4325FDD7-A6DD-4E35-AD11-92C1C33CEFE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Emplyee id</t>
   </si>
@@ -51,13 +51,25 @@
     <t>Krishna</t>
   </si>
   <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
     <t>Math</t>
+  </si>
+  <si>
+    <t>Claa</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>8th</t>
   </si>
 </sst>
 </file>
@@ -428,13 +440,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -446,8 +458,8 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -465,8 +477,8 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>67</v>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>67</v>
@@ -484,9 +496,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>98</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -503,8 +513,8 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>67</v>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>67</v>
@@ -522,8 +532,8 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>23</v>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>45</v>

--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61235c36ee3f7d6/Documents/H.R/PANDAS-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C23719C-EB62-4ECB-A757-61A6A10223EB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69131DA4-5201-452A-84A1-3CD12FDD0505}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4325FDD7-A6DD-4E35-AD11-92C1C33CEFE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Emplyee id</t>
   </si>
@@ -70,6 +70,36 @@
   </si>
   <si>
     <t>8th</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>Karun</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Parol</t>
+  </si>
+  <si>
+    <t>C-105</t>
+  </si>
+  <si>
+    <t>C-106</t>
+  </si>
+  <si>
+    <t>C-107</t>
   </si>
 </sst>
 </file>
@@ -424,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF48F6F-995C-40E0-A267-21094BB23060}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,7 +478,9 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -467,7 +499,9 @@
       <c r="E2" s="1">
         <v>23</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>300</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -486,7 +520,9 @@
       <c r="E3" s="1">
         <v>98</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -503,7 +539,9 @@
       <c r="E4" s="1">
         <v>67</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -539,26 +577,72 @@
         <v>45</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>390</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>123</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45</v>
+      </c>
       <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61235c36ee3f7d6/Documents/H.R/PANDAS-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69131DA4-5201-452A-84A1-3CD12FDD0505}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16149963-057F-4644-A509-F5F73FE1330E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4325FDD7-A6DD-4E35-AD11-92C1C33CEFE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Emplyee id</t>
   </si>
@@ -39,9 +39,6 @@
     <t>C-103</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Aman</t>
   </si>
   <si>
@@ -100,6 +97,27 @@
   </si>
   <si>
     <t>C-107</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>chauhan</t>
+  </si>
+  <si>
+    <t>mittal</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>plaks</t>
+  </si>
+  <si>
+    <t>giri</t>
   </si>
 </sst>
 </file>
@@ -454,193 +472,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF48F6F-995C-40E0-A267-21094BB23060}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>45</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>23</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>300</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
         <v>67</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>98</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>67</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
         <v>67</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>98</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>390</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>123</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="G8" s="1">
         <v>45</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>390</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>86</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>123</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>56</v>
       </c>
     </row>

--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF48F6F-995C-40E0-A267-21094BB23060}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61235c36ee3f7d6/Documents/H.R/PANDAS-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16149963-057F-4644-A509-F5F73FE1330E}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF613B3-A5E1-4D0C-B1B5-F1050CDD6EEE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4325FDD7-A6DD-4E35-AD11-92C1C33CEFE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Emplyee id</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Math</t>
   </si>
   <si>
-    <t>Claa</t>
-  </si>
-  <si>
     <t>1st</t>
   </si>
   <si>
@@ -118,6 +115,21 @@
   </si>
   <si>
     <t>giri</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>deol</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>koka</t>
   </si>
 </sst>
 </file>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF48F6F-995C-40E0-A267-21094BB23060}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,13 +497,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -500,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -512,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>45</v>
@@ -536,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>67</v>
@@ -560,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -582,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>67</v>
@@ -604,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>45</v>
@@ -620,16 +632,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>86</v>
@@ -644,16 +656,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>45</v>
@@ -668,16 +680,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -687,6 +699,52 @@
       </c>
       <c r="G9" s="1">
         <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>83</v>
+      </c>
+      <c r="F11" s="1">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61235c36ee3f7d6/Documents/H.R/PANDAS-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF613B3-A5E1-4D0C-B1B5-F1050CDD6EEE}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8020D085-535D-4428-80FB-030E0AF852CA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4325FDD7-A6DD-4E35-AD11-92C1C33CEFE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Emplyee id</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>koka</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +587,9 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">

--- a/Duplicate.xlsx
+++ b/Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61235c36ee3f7d6/Documents/H.R/PANDAS-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8020D085-535D-4428-80FB-030E0AF852CA}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{DAC34E29-5FB9-4FA1-A895-84538EC76355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F6E111-09F7-482E-A0F6-DEF29BC59AC0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4325FDD7-A6DD-4E35-AD11-92C1C33CEFE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Emplyee id</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>koka</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -490,7 +487,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,9 +584,7 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
